--- a/biology/Médecine/Infundibulum_ethmoïdal/Infundibulum_ethmoïdal.xlsx
+++ b/biology/Médecine/Infundibulum_ethmoïdal/Infundibulum_ethmoïdal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Infundibulum_ethmo%C3%AFdal</t>
+          <t>Infundibulum_ethmoïdal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'infundibulum ethmoïdal est une demi-cellule ethmoïdale qui forme la partie médiale du sinus frontal.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Infundibulum_ethmo%C3%AFdal</t>
+          <t>Infundibulum_ethmoïdal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'infundibulum ethmoïdal est une cavité en forme d'entonnoir qui débouche dans le méat nasal moyen.
 Il est délimité en haut par la bulle ethmoïdale et en bas par la surface latérale du processus unciforme de l'os ethmoïde.
